--- a/ResultadoEleicoesDistritos/LISBOA_AMADORA.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_AMADORA.xlsx
@@ -597,64 +597,64 @@
         <v>42714</v>
       </c>
       <c r="H2" t="n">
-        <v>1607</v>
+        <v>1579</v>
       </c>
       <c r="I2" t="n">
-        <v>4262</v>
+        <v>4240</v>
       </c>
       <c r="J2" t="n">
-        <v>17429</v>
+        <v>17483</v>
       </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="L2" t="n">
-        <v>4891</v>
+        <v>4872</v>
       </c>
       <c r="M2" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="N2" t="n">
-        <v>2999</v>
+        <v>3027</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" t="n">
         <v>32</v>
       </c>
       <c r="R2" t="n">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="S2" t="n">
-        <v>1850</v>
+        <v>1913</v>
       </c>
       <c r="T2" t="n">
-        <v>3129</v>
+        <v>3091</v>
       </c>
       <c r="U2" t="n">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="V2" t="n">
-        <v>27328</v>
+        <v>27407</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>27506</v>
+        <v>27308</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AA2" t="n">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
